--- a/Code/Results/Cases/Case_5_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_250/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.04690559768407</v>
+        <v>14.81967709108768</v>
       </c>
       <c r="C2">
-        <v>7.16837778208894</v>
+        <v>8.701991038463163</v>
       </c>
       <c r="D2">
-        <v>5.174032448198835</v>
+        <v>7.740546356698323</v>
       </c>
       <c r="E2">
-        <v>7.952464732240003</v>
+        <v>13.11470004589203</v>
       </c>
       <c r="F2">
-        <v>26.6510910736777</v>
+        <v>39.8029137826646</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.12692966929698</v>
+        <v>10.43965123685456</v>
       </c>
       <c r="K2">
-        <v>11.03427256079178</v>
+        <v>10.97304233228029</v>
       </c>
       <c r="L2">
-        <v>6.511180057679625</v>
+        <v>10.64414207485449</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.0991988081819</v>
+        <v>30.85463545647012</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.2015825167338</v>
+        <v>14.62931646709674</v>
       </c>
       <c r="C3">
-        <v>7.136359099891286</v>
+        <v>8.691439001280012</v>
       </c>
       <c r="D3">
-        <v>4.996333906392655</v>
+        <v>7.723530605890964</v>
       </c>
       <c r="E3">
-        <v>7.908707002465641</v>
+        <v>13.13361988409838</v>
       </c>
       <c r="F3">
-        <v>26.5703658057642</v>
+        <v>39.89908891827515</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.175389280396208</v>
+        <v>10.4610844188764</v>
       </c>
       <c r="K3">
-        <v>10.37210187029592</v>
+        <v>10.83240246286643</v>
       </c>
       <c r="L3">
-        <v>6.382686048446264</v>
+        <v>10.64266630505119</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.17529708791186</v>
+        <v>30.94776686950027</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.65822664461869</v>
+        <v>14.51376867355322</v>
       </c>
       <c r="C4">
-        <v>7.11719684496175</v>
+        <v>8.685101927765661</v>
       </c>
       <c r="D4">
-        <v>4.885744648768677</v>
+        <v>7.714087536435392</v>
       </c>
       <c r="E4">
-        <v>7.885052341134763</v>
+        <v>13.14684489049911</v>
       </c>
       <c r="F4">
-        <v>26.53988286018846</v>
+        <v>39.96572229615061</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.20663036882994</v>
+        <v>10.47505103561537</v>
       </c>
       <c r="K4">
-        <v>9.943491640772722</v>
+        <v>10.74678159678719</v>
       </c>
       <c r="L4">
-        <v>6.304806331316735</v>
+        <v>10.64300740739914</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.23572024637394</v>
+        <v>31.01030512843781</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.43082942559668</v>
+        <v>14.46707100463806</v>
       </c>
       <c r="C5">
-        <v>7.109512435214794</v>
+        <v>8.682555940822414</v>
       </c>
       <c r="D5">
-        <v>4.840372046824281</v>
+        <v>7.710494774059352</v>
       </c>
       <c r="E5">
-        <v>7.876214058164317</v>
+        <v>13.15263905169099</v>
       </c>
       <c r="F5">
-        <v>26.53212200694034</v>
+        <v>39.99478004119007</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.219734747205787</v>
+        <v>10.48094584146439</v>
       </c>
       <c r="K5">
-        <v>9.763314464533925</v>
+        <v>10.71211283334712</v>
       </c>
       <c r="L5">
-        <v>6.273358926215787</v>
+        <v>10.64346122514577</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.26366475871497</v>
+        <v>31.03713545824352</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.39271426287839</v>
+        <v>14.4593419383035</v>
       </c>
       <c r="C6">
-        <v>7.108243937867449</v>
+        <v>8.682135402780364</v>
       </c>
       <c r="D6">
-        <v>4.832821481124946</v>
+        <v>7.709913698467634</v>
       </c>
       <c r="E6">
-        <v>7.874794642396829</v>
+        <v>13.15362563393736</v>
       </c>
       <c r="F6">
-        <v>26.53111074706802</v>
+        <v>39.99971998852551</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.221933259999102</v>
+        <v>10.48193696224478</v>
       </c>
       <c r="K6">
-        <v>9.733064100996486</v>
+        <v>10.7063706581296</v>
       </c>
       <c r="L6">
-        <v>6.268155563371169</v>
+        <v>10.64355562838786</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.26850199786471</v>
+        <v>31.04167184409232</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.65518386608953</v>
+        <v>14.51313724720179</v>
       </c>
       <c r="C7">
-        <v>7.117092707615681</v>
+        <v>8.685067443256928</v>
       </c>
       <c r="D7">
-        <v>4.885133888036402</v>
+        <v>7.714038045733258</v>
       </c>
       <c r="E7">
-        <v>7.884929910556025</v>
+        <v>13.14692139268823</v>
       </c>
       <c r="F7">
-        <v>26.53975950624409</v>
+        <v>39.96610647267224</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.206805587736251</v>
+        <v>10.47512971125002</v>
       </c>
       <c r="K7">
-        <v>9.941083994973736</v>
+        <v>10.74631309077746</v>
       </c>
       <c r="L7">
-        <v>6.304381004967754</v>
+        <v>10.64301225155649</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.23608382726532</v>
+        <v>31.01066152538205</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.76056033414433</v>
+        <v>14.75379599158113</v>
       </c>
       <c r="C8">
-        <v>7.157234049549863</v>
+        <v>8.698323681062561</v>
       </c>
       <c r="D8">
-        <v>5.113107336268978</v>
+        <v>7.734472495406212</v>
       </c>
       <c r="E8">
-        <v>7.936706520769805</v>
+        <v>13.12089013287824</v>
       </c>
       <c r="F8">
-        <v>26.61921521092225</v>
+        <v>39.834500111844</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.143329661634449</v>
+        <v>10.44687428678337</v>
       </c>
       <c r="K8">
-        <v>10.81054095463994</v>
+        <v>10.92442064385762</v>
       </c>
       <c r="L8">
-        <v>6.466684553076292</v>
+        <v>10.6433751035986</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.12251949205624</v>
+        <v>30.88563503520244</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.73070836026035</v>
+        <v>15.23395264602104</v>
       </c>
       <c r="C9">
-        <v>7.239940551576252</v>
+        <v>8.725413719840896</v>
       </c>
       <c r="D9">
-        <v>5.545804723009104</v>
+        <v>7.782389371023138</v>
       </c>
       <c r="E9">
-        <v>8.063990481296241</v>
+        <v>13.08258103744324</v>
       </c>
       <c r="F9">
-        <v>26.93233725815605</v>
+        <v>39.63667211046077</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.030677113619324</v>
+        <v>10.39784338144481</v>
       </c>
       <c r="K9">
-        <v>12.34019827309294</v>
+        <v>11.27781867224495</v>
       </c>
       <c r="L9">
-        <v>6.791571593632792</v>
+        <v>10.65392819927299</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.01415986824806</v>
+        <v>30.68299857646559</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.08830474333088</v>
+        <v>15.58858143720893</v>
       </c>
       <c r="C10">
-        <v>7.303216807475775</v>
+        <v>8.745943010902064</v>
       </c>
       <c r="D10">
-        <v>5.851900461339481</v>
+        <v>7.822197323066357</v>
       </c>
       <c r="E10">
-        <v>8.173507372021485</v>
+        <v>13.06217048981788</v>
       </c>
       <c r="F10">
-        <v>27.26598734120619</v>
+        <v>39.5281792940071</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.955168965351745</v>
+        <v>10.36567830589275</v>
       </c>
       <c r="K10">
-        <v>13.35718942950628</v>
+        <v>11.53773602245048</v>
       </c>
       <c r="L10">
-        <v>7.032428959425991</v>
+        <v>10.6676042628551</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.01219124261931</v>
+        <v>30.56012022536082</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.70454308446766</v>
+        <v>15.74965573412404</v>
       </c>
       <c r="C11">
-        <v>7.332570369814166</v>
+        <v>8.755409480334276</v>
       </c>
       <c r="D11">
-        <v>5.988062932549397</v>
+        <v>7.841265088907927</v>
       </c>
       <c r="E11">
-        <v>8.226853858492191</v>
+        <v>13.05455763580052</v>
       </c>
       <c r="F11">
-        <v>27.44180394304457</v>
+        <v>39.48684563244934</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.922410069411431</v>
+        <v>10.35187691088282</v>
       </c>
       <c r="K11">
-        <v>13.79681758331703</v>
+        <v>11.65557283967953</v>
       </c>
       <c r="L11">
-        <v>7.142106017302262</v>
+        <v>10.67509371608225</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.02991370393566</v>
+        <v>30.50987806890997</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.93308539497492</v>
+        <v>15.81056100720922</v>
       </c>
       <c r="C12">
-        <v>7.34376964009113</v>
+        <v>8.759011739754831</v>
       </c>
       <c r="D12">
-        <v>6.039144896490322</v>
+        <v>7.848619669007608</v>
       </c>
       <c r="E12">
-        <v>8.247564844075921</v>
+        <v>13.05191459984156</v>
       </c>
       <c r="F12">
-        <v>27.51195520735777</v>
+        <v>39.47234814513764</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.910235612247853</v>
+        <v>10.34676964745894</v>
       </c>
       <c r="K12">
-        <v>13.96000641495591</v>
+        <v>11.70009901126915</v>
       </c>
       <c r="L12">
-        <v>7.183625772588613</v>
+        <v>10.67811041067315</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.03944983551567</v>
+        <v>30.49166699845185</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.88407788295431</v>
+        <v>15.7974488231034</v>
       </c>
       <c r="C13">
-        <v>7.341353919761007</v>
+        <v>8.758235163221215</v>
       </c>
       <c r="D13">
-        <v>6.028165345717842</v>
+        <v>7.847029830576124</v>
       </c>
       <c r="E13">
-        <v>8.243081649263344</v>
+        <v>13.05247317111006</v>
       </c>
       <c r="F13">
-        <v>27.49668614687835</v>
+        <v>39.4754190655425</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.912847307273818</v>
+        <v>10.34786430101244</v>
       </c>
       <c r="K13">
-        <v>13.92500668445892</v>
+        <v>11.6905143767688</v>
       </c>
       <c r="L13">
-        <v>7.174684735366661</v>
+        <v>10.67745270820885</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.03726803845855</v>
+        <v>30.49555283219066</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.7234415392384</v>
+        <v>15.75466855903177</v>
       </c>
       <c r="C14">
-        <v>7.333490050675961</v>
+        <v>8.755705494209321</v>
       </c>
       <c r="D14">
-        <v>5.992275282695511</v>
+        <v>7.841867491098629</v>
       </c>
       <c r="E14">
-        <v>8.228547531997206</v>
+        <v>13.05433538981727</v>
       </c>
       <c r="F14">
-        <v>27.44750306403533</v>
+        <v>39.48562976733916</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.921403834914824</v>
+        <v>10.35145435020533</v>
       </c>
       <c r="K14">
-        <v>13.81030900893657</v>
+        <v>11.65923817634425</v>
       </c>
       <c r="L14">
-        <v>7.145522278363936</v>
+        <v>10.67533829224245</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.03064077513434</v>
+        <v>30.50836350163529</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.62442197139067</v>
+        <v>15.72845109311715</v>
       </c>
       <c r="C15">
-        <v>7.328684167967259</v>
+        <v>8.754158254684649</v>
       </c>
       <c r="D15">
-        <v>5.970228104999896</v>
+        <v>7.83872274678234</v>
       </c>
       <c r="E15">
-        <v>8.219711433294661</v>
+        <v>13.05550725991825</v>
       </c>
       <c r="F15">
-        <v>27.41784573787106</v>
+        <v>39.49203452487144</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.926675053695125</v>
+        <v>10.35366884714982</v>
       </c>
       <c r="K15">
-        <v>13.739625739647</v>
+        <v>11.64006696670712</v>
       </c>
       <c r="L15">
-        <v>7.127656993754923</v>
+        <v>10.67406661726952</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.02695371057444</v>
+        <v>30.51631651994649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.04735535325666</v>
+        <v>15.57804517883591</v>
       </c>
       <c r="C16">
-        <v>7.301310086324779</v>
+        <v>8.745326851171759</v>
       </c>
       <c r="D16">
-        <v>5.842936648473191</v>
+        <v>7.820970169095419</v>
       </c>
       <c r="E16">
-        <v>8.17009225997149</v>
+        <v>13.06270159857961</v>
       </c>
       <c r="F16">
-        <v>27.25499110829212</v>
+        <v>39.53104205833036</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.957341994193873</v>
+        <v>10.36659693828437</v>
       </c>
       <c r="K16">
-        <v>13.32799729107556</v>
+        <v>11.53002373369565</v>
       </c>
       <c r="L16">
-        <v>7.025261038161239</v>
+        <v>10.66714017980721</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.01142025967915</v>
+        <v>30.56351758589155</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.68470822743159</v>
+        <v>15.48567333709915</v>
       </c>
       <c r="C17">
-        <v>7.284663935721161</v>
+        <v>8.73994115923308</v>
       </c>
       <c r="D17">
-        <v>5.764030258573752</v>
+        <v>7.810322442129934</v>
       </c>
       <c r="E17">
-        <v>8.140557835960781</v>
+        <v>13.06754288780133</v>
       </c>
       <c r="F17">
-        <v>27.16132638369821</v>
+        <v>39.55702717098831</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.976563734157924</v>
+        <v>10.37474035316442</v>
       </c>
       <c r="K17">
-        <v>13.06959622591669</v>
+        <v>11.46238543053439</v>
       </c>
       <c r="L17">
-        <v>6.962451655802488</v>
+        <v>10.66321461743764</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.00676391521244</v>
+        <v>30.59392340894325</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.4823552233584</v>
+        <v>15.43252331576842</v>
       </c>
       <c r="C18">
-        <v>7.275142922914673</v>
+        <v>8.736855511680428</v>
       </c>
       <c r="D18">
-        <v>5.718357123564799</v>
+        <v>7.804288650900074</v>
       </c>
       <c r="E18">
-        <v>8.123902239246551</v>
+        <v>13.0704848879044</v>
       </c>
       <c r="F18">
-        <v>27.10970879775665</v>
+        <v>39.57272796320036</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.987769104679599</v>
+        <v>10.37950244055493</v>
       </c>
       <c r="K18">
-        <v>12.91880378053418</v>
+        <v>11.42344617205877</v>
       </c>
       <c r="L18">
-        <v>6.926337256388948</v>
+        <v>10.66107621259331</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.0058291346345</v>
+        <v>30.61194431663897</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.41542725541858</v>
+        <v>15.41452584573234</v>
       </c>
       <c r="C19">
-        <v>7.271928392250859</v>
+        <v>8.735812861053589</v>
       </c>
       <c r="D19">
-        <v>5.70284468177009</v>
+        <v>7.802261371494835</v>
       </c>
       <c r="E19">
-        <v>8.118319841986898</v>
+        <v>13.07150805433426</v>
       </c>
       <c r="F19">
-        <v>27.09261577765426</v>
+        <v>39.57817357987943</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.9915886788367</v>
+        <v>10.38112824720555</v>
       </c>
       <c r="K19">
-        <v>12.86737536390956</v>
+        <v>11.41025709967085</v>
       </c>
       <c r="L19">
-        <v>6.914112486634343</v>
+        <v>10.66037275731486</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.00580760401891</v>
+        <v>30.61813726739933</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.72364254910958</v>
+        <v>15.49550896449618</v>
       </c>
       <c r="C20">
-        <v>7.28643040604294</v>
+        <v>8.740513233190699</v>
       </c>
       <c r="D20">
-        <v>5.772460095838588</v>
+        <v>7.811446571974935</v>
       </c>
       <c r="E20">
-        <v>8.143667462571033</v>
+        <v>13.06701123660771</v>
       </c>
       <c r="F20">
-        <v>27.1710628157159</v>
+        <v>39.55418287707854</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.974502057763075</v>
+        <v>10.37386538132522</v>
       </c>
       <c r="K20">
-        <v>13.0973276114792</v>
+        <v>11.4695895987158</v>
       </c>
       <c r="L20">
-        <v>6.969136803491713</v>
+        <v>10.66362014748202</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.0070780899628</v>
+        <v>30.59063155868898</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.77075450712091</v>
+        <v>15.76723703022528</v>
       </c>
       <c r="C21">
-        <v>7.335797570848598</v>
+        <v>8.75644805071498</v>
       </c>
       <c r="D21">
-        <v>6.002830350559423</v>
+        <v>7.843380189280738</v>
       </c>
       <c r="E21">
-        <v>8.232802698451337</v>
+        <v>13.05378190866978</v>
       </c>
       <c r="F21">
-        <v>27.46185144299831</v>
+        <v>39.4825992898456</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.918884298829584</v>
+        <v>10.35039663876375</v>
       </c>
       <c r="K21">
-        <v>13.84408757235248</v>
+        <v>11.66842766286208</v>
       </c>
       <c r="L21">
-        <v>7.1540885541229</v>
+        <v>10.67595446046982</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.03250950389832</v>
+        <v>30.5045785814305</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.42707243462789</v>
+        <v>15.94427789621936</v>
       </c>
       <c r="C22">
-        <v>7.368550941162145</v>
+        <v>8.766964060888302</v>
       </c>
       <c r="D22">
-        <v>6.15058078868564</v>
+        <v>7.865029996598991</v>
       </c>
       <c r="E22">
-        <v>8.294030407822778</v>
+        <v>13.04653310692512</v>
       </c>
       <c r="F22">
-        <v>27.6727774575653</v>
+        <v>39.44254600982487</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.883880309127593</v>
+        <v>10.3357520367963</v>
       </c>
       <c r="K22">
-        <v>14.31298136739335</v>
+        <v>11.79780280967126</v>
       </c>
       <c r="L22">
-        <v>7.274880552188591</v>
+        <v>10.68506744734967</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.0656669043334</v>
+        <v>30.45308629831329</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.07932857925329</v>
+        <v>15.84985568064157</v>
       </c>
       <c r="C23">
-        <v>7.351024382337673</v>
+        <v>8.76134244189519</v>
       </c>
       <c r="D23">
-        <v>6.071991384202876</v>
+        <v>7.853405090310131</v>
       </c>
       <c r="E23">
-        <v>8.261079231092335</v>
+        <v>13.05027429805415</v>
       </c>
       <c r="F23">
-        <v>27.55825456214299</v>
+        <v>39.46330696550741</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.902438748683053</v>
+        <v>10.34350481243198</v>
       </c>
       <c r="K23">
-        <v>14.064469007031</v>
+        <v>11.72881806572087</v>
       </c>
       <c r="L23">
-        <v>7.210428077011577</v>
+        <v>10.68010803968924</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.04640768573978</v>
+        <v>30.4801338352039</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.70605058165807</v>
+        <v>15.49106241092093</v>
       </c>
       <c r="C24">
-        <v>7.285631632074196</v>
+        <v>8.740254565294267</v>
       </c>
       <c r="D24">
-        <v>5.768649925415299</v>
+        <v>7.810938079328677</v>
       </c>
       <c r="E24">
-        <v>8.142260590972692</v>
+        <v>13.067251101804</v>
       </c>
       <c r="F24">
-        <v>27.16665403303969</v>
+        <v>39.55546641009489</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.975433660459853</v>
+        <v>10.37426070584053</v>
       </c>
       <c r="K24">
-        <v>13.0847972126098</v>
+        <v>11.46633275672642</v>
       </c>
       <c r="L24">
-        <v>6.966114459897832</v>
+        <v>10.663436438253</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.00693063611618</v>
+        <v>30.59211812158613</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.21938370622181</v>
+        <v>15.10350454338539</v>
       </c>
       <c r="C25">
-        <v>7.217131656414759</v>
+        <v>8.717972166717331</v>
       </c>
       <c r="D25">
-        <v>5.43062426882879</v>
+        <v>7.768604543889522</v>
       </c>
       <c r="E25">
-        <v>8.026765491323076</v>
+        <v>13.09158393568018</v>
       </c>
       <c r="F25">
-        <v>26.82997222889786</v>
+        <v>39.68372597824214</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.059882557757001</v>
+        <v>10.41042788225338</v>
       </c>
       <c r="K25">
-        <v>11.94518467577652</v>
+        <v>11.18200601018616</v>
       </c>
       <c r="L25">
-        <v>6.703171113905328</v>
+        <v>10.65002727404116</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.03042422453728</v>
+        <v>30.73325596472722</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_250/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.81967709108768</v>
+        <v>14.04690559768409</v>
       </c>
       <c r="C2">
-        <v>8.701991038463163</v>
+        <v>7.168377782088814</v>
       </c>
       <c r="D2">
-        <v>7.740546356698323</v>
+        <v>5.174032448198827</v>
       </c>
       <c r="E2">
-        <v>13.11470004589203</v>
+        <v>7.952464732239946</v>
       </c>
       <c r="F2">
-        <v>39.8029137826646</v>
+        <v>26.65109107367789</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.43965123685456</v>
+        <v>6.126929669296946</v>
       </c>
       <c r="K2">
-        <v>10.97304233228029</v>
+        <v>11.03427256079176</v>
       </c>
       <c r="L2">
-        <v>10.64414207485449</v>
+        <v>6.511180057679623</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.85463545647012</v>
+        <v>20.09919880818205</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.62931646709674</v>
+        <v>13.20158251673383</v>
       </c>
       <c r="C3">
-        <v>8.691439001280012</v>
+        <v>7.136359099891545</v>
       </c>
       <c r="D3">
-        <v>7.723530605890964</v>
+        <v>4.996333906392518</v>
       </c>
       <c r="E3">
-        <v>13.13361988409838</v>
+        <v>7.908707002465586</v>
       </c>
       <c r="F3">
-        <v>39.89908891827515</v>
+        <v>26.57036580576404</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.4610844188764</v>
+        <v>6.175389280396272</v>
       </c>
       <c r="K3">
-        <v>10.83240246286643</v>
+        <v>10.37210187029596</v>
       </c>
       <c r="L3">
-        <v>10.64266630505119</v>
+        <v>6.382686048446096</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.94776686950027</v>
+        <v>20.17529708791184</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.51376867355322</v>
+        <v>12.65822664461866</v>
       </c>
       <c r="C4">
-        <v>8.685101927765661</v>
+        <v>7.11719684496174</v>
       </c>
       <c r="D4">
-        <v>7.714087536435392</v>
+        <v>4.885744648768591</v>
       </c>
       <c r="E4">
-        <v>13.14684489049911</v>
+        <v>7.885052341134713</v>
       </c>
       <c r="F4">
-        <v>39.96572229615061</v>
+        <v>26.53988286018816</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.47505103561537</v>
+        <v>6.206630368829941</v>
       </c>
       <c r="K4">
-        <v>10.74678159678719</v>
+        <v>9.943491640772786</v>
       </c>
       <c r="L4">
-        <v>10.64300740739914</v>
+        <v>6.304806331316692</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.01030512843781</v>
+        <v>20.23572024637372</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.46707100463806</v>
+        <v>12.43082942559668</v>
       </c>
       <c r="C5">
-        <v>8.682555940822414</v>
+        <v>7.10951243521492</v>
       </c>
       <c r="D5">
-        <v>7.710494774059352</v>
+        <v>4.840372046824239</v>
       </c>
       <c r="E5">
-        <v>13.15263905169099</v>
+        <v>7.87621405816444</v>
       </c>
       <c r="F5">
-        <v>39.99478004119007</v>
+        <v>26.53212200694032</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.48094584146439</v>
+        <v>6.219734747205856</v>
       </c>
       <c r="K5">
-        <v>10.71211283334712</v>
+        <v>9.763314464533911</v>
       </c>
       <c r="L5">
-        <v>10.64346122514577</v>
+        <v>6.273358926215818</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.03713545824352</v>
+        <v>20.26366475871499</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.4593419383035</v>
+        <v>12.39271426287837</v>
       </c>
       <c r="C6">
-        <v>8.682135402780364</v>
+        <v>7.10824393786771</v>
       </c>
       <c r="D6">
-        <v>7.709913698467634</v>
+        <v>4.832821481124935</v>
       </c>
       <c r="E6">
-        <v>13.15362563393736</v>
+        <v>7.874794642396936</v>
       </c>
       <c r="F6">
-        <v>39.99971998852551</v>
+        <v>26.531110747068</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.48193696224478</v>
+        <v>6.221933259999201</v>
       </c>
       <c r="K6">
-        <v>10.7063706581296</v>
+        <v>9.73306410099654</v>
       </c>
       <c r="L6">
-        <v>10.64355562838786</v>
+        <v>6.268155563371196</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.04167184409232</v>
+        <v>20.2685019978647</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.51313724720179</v>
+        <v>12.65518386608951</v>
       </c>
       <c r="C7">
-        <v>8.685067443256928</v>
+        <v>7.117092707615817</v>
       </c>
       <c r="D7">
-        <v>7.714038045733258</v>
+        <v>4.885133888036371</v>
       </c>
       <c r="E7">
-        <v>13.14692139268823</v>
+        <v>7.884929910556032</v>
       </c>
       <c r="F7">
-        <v>39.96610647267224</v>
+        <v>26.53975950624384</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.47512971125002</v>
+        <v>6.206805587736252</v>
       </c>
       <c r="K7">
-        <v>10.74631309077746</v>
+        <v>9.941083994973757</v>
       </c>
       <c r="L7">
-        <v>10.64301225155649</v>
+        <v>6.304381004967722</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.01066152538205</v>
+        <v>20.2360838272651</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.75379599158113</v>
+        <v>13.76056033414432</v>
       </c>
       <c r="C8">
-        <v>8.698323681062561</v>
+        <v>7.157234049549855</v>
       </c>
       <c r="D8">
-        <v>7.734472495406212</v>
+        <v>5.11310733626888</v>
       </c>
       <c r="E8">
-        <v>13.12089013287824</v>
+        <v>7.936706520769811</v>
       </c>
       <c r="F8">
-        <v>39.834500111844</v>
+        <v>26.6192152109219</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.44687428678337</v>
+        <v>6.143329661634449</v>
       </c>
       <c r="K8">
-        <v>10.92442064385762</v>
+        <v>10.81054095463999</v>
       </c>
       <c r="L8">
-        <v>10.6433751035986</v>
+        <v>6.466684553076239</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.88563503520244</v>
+        <v>20.122519492056</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.23395264602104</v>
+        <v>15.73070836026034</v>
       </c>
       <c r="C9">
-        <v>8.725413719840896</v>
+        <v>7.239940551576001</v>
       </c>
       <c r="D9">
-        <v>7.782389371023138</v>
+        <v>5.545804723009062</v>
       </c>
       <c r="E9">
-        <v>13.08258103744324</v>
+        <v>8.063990481296237</v>
       </c>
       <c r="F9">
-        <v>39.63667211046077</v>
+        <v>26.93233725815573</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.39784338144481</v>
+        <v>6.030677113619354</v>
       </c>
       <c r="K9">
-        <v>11.27781867224495</v>
+        <v>12.34019827309296</v>
       </c>
       <c r="L9">
-        <v>10.65392819927299</v>
+        <v>6.791571593632835</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.68299857646559</v>
+        <v>20.01415986824781</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.58858143720893</v>
+        <v>17.08830474333089</v>
       </c>
       <c r="C10">
-        <v>8.745943010902064</v>
+        <v>7.303216807475775</v>
       </c>
       <c r="D10">
-        <v>7.822197323066357</v>
+        <v>5.851900461339465</v>
       </c>
       <c r="E10">
-        <v>13.06217048981788</v>
+        <v>8.173507372021495</v>
       </c>
       <c r="F10">
-        <v>39.5281792940071</v>
+        <v>27.26598734120607</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.36567830589275</v>
+        <v>5.955168965351779</v>
       </c>
       <c r="K10">
-        <v>11.53773602245048</v>
+        <v>13.35718942950629</v>
       </c>
       <c r="L10">
-        <v>10.6676042628551</v>
+        <v>7.032428959425978</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>30.56012022536082</v>
+        <v>20.01219124261919</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.74965573412404</v>
+        <v>17.70454308446767</v>
       </c>
       <c r="C11">
-        <v>8.755409480334276</v>
+        <v>7.332570369814404</v>
       </c>
       <c r="D11">
-        <v>7.841265088907927</v>
+        <v>5.988062932549433</v>
       </c>
       <c r="E11">
-        <v>13.05455763580052</v>
+        <v>8.226853858492293</v>
       </c>
       <c r="F11">
-        <v>39.48684563244934</v>
+        <v>27.44180394304451</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.35187691088282</v>
+        <v>5.92241006941143</v>
       </c>
       <c r="K11">
-        <v>11.65557283967953</v>
+        <v>13.79681758331709</v>
       </c>
       <c r="L11">
-        <v>10.67509371608225</v>
+        <v>7.142106017302216</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>30.50987806890997</v>
+        <v>20.02991370393563</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.81056100720922</v>
+        <v>17.93308539497494</v>
       </c>
       <c r="C12">
-        <v>8.759011739754831</v>
+        <v>7.343769640091493</v>
       </c>
       <c r="D12">
-        <v>7.848619669007608</v>
+        <v>6.039144896490358</v>
       </c>
       <c r="E12">
-        <v>13.05191459984156</v>
+        <v>8.247564844075924</v>
       </c>
       <c r="F12">
-        <v>39.47234814513764</v>
+        <v>27.51195520735762</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.34676964745894</v>
+        <v>5.910235612247885</v>
       </c>
       <c r="K12">
-        <v>11.70009901126915</v>
+        <v>13.96000641495596</v>
       </c>
       <c r="L12">
-        <v>10.67811041067315</v>
+        <v>7.183625772588559</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>30.49166699845185</v>
+        <v>20.03944983551552</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.7974488231034</v>
+        <v>17.88407788295433</v>
       </c>
       <c r="C13">
-        <v>8.758235163221215</v>
+        <v>7.341353919761132</v>
       </c>
       <c r="D13">
-        <v>7.847029830576124</v>
+        <v>6.028165345717944</v>
       </c>
       <c r="E13">
-        <v>13.05247317111006</v>
+        <v>8.243081649263436</v>
       </c>
       <c r="F13">
-        <v>39.4754190655425</v>
+        <v>27.49668614687838</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.34786430101244</v>
+        <v>5.912847307273847</v>
       </c>
       <c r="K13">
-        <v>11.6905143767688</v>
+        <v>13.92500668445897</v>
       </c>
       <c r="L13">
-        <v>10.67745270820885</v>
+        <v>7.174684735366698</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>30.49555283219066</v>
+        <v>20.0372680384585</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.75466855903177</v>
+        <v>17.72344153923839</v>
       </c>
       <c r="C14">
-        <v>8.755705494209321</v>
+        <v>7.333490050675852</v>
       </c>
       <c r="D14">
-        <v>7.841867491098629</v>
+        <v>5.992275282695519</v>
       </c>
       <c r="E14">
-        <v>13.05433538981727</v>
+        <v>8.228547531997252</v>
       </c>
       <c r="F14">
-        <v>39.48562976733916</v>
+        <v>27.44750306403537</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.35145435020533</v>
+        <v>5.921403834914886</v>
       </c>
       <c r="K14">
-        <v>11.65923817634425</v>
+        <v>13.81030900893654</v>
       </c>
       <c r="L14">
-        <v>10.67533829224245</v>
+        <v>7.14552227836398</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>30.50836350163529</v>
+        <v>20.03064077513438</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.72845109311715</v>
+        <v>17.62442197139064</v>
       </c>
       <c r="C15">
-        <v>8.754158254684649</v>
+        <v>7.328684167967395</v>
       </c>
       <c r="D15">
-        <v>7.83872274678234</v>
+        <v>5.970228104999956</v>
       </c>
       <c r="E15">
-        <v>13.05550725991825</v>
+        <v>8.21971143329475</v>
       </c>
       <c r="F15">
-        <v>39.49203452487144</v>
+        <v>27.41784573787109</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.35366884714982</v>
+        <v>5.926675053695188</v>
       </c>
       <c r="K15">
-        <v>11.64006696670712</v>
+        <v>13.73962573964701</v>
       </c>
       <c r="L15">
-        <v>10.67406661726952</v>
+        <v>7.127656993754954</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>30.51631651994649</v>
+        <v>20.02695371057444</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.57804517883591</v>
+        <v>17.04735535325663</v>
       </c>
       <c r="C16">
-        <v>8.745326851171759</v>
+        <v>7.301310086325046</v>
       </c>
       <c r="D16">
-        <v>7.820970169095419</v>
+        <v>5.842936648473183</v>
       </c>
       <c r="E16">
-        <v>13.06270159857961</v>
+        <v>8.17009225997154</v>
       </c>
       <c r="F16">
-        <v>39.53104205833036</v>
+        <v>27.25499110829198</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.36659693828437</v>
+        <v>5.957341994193933</v>
       </c>
       <c r="K16">
-        <v>11.53002373369565</v>
+        <v>13.3279972910756</v>
       </c>
       <c r="L16">
-        <v>10.66714017980721</v>
+        <v>7.025261038161211</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>30.56351758589155</v>
+        <v>20.01142025967907</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.48567333709915</v>
+        <v>16.68470822743156</v>
       </c>
       <c r="C17">
-        <v>8.73994115923308</v>
+        <v>7.284663935721161</v>
       </c>
       <c r="D17">
-        <v>7.810322442129934</v>
+        <v>5.764030258573745</v>
       </c>
       <c r="E17">
-        <v>13.06754288780133</v>
+        <v>8.140557835960774</v>
       </c>
       <c r="F17">
-        <v>39.55702717098831</v>
+        <v>27.16132638369819</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.37474035316442</v>
+        <v>5.976563734157926</v>
       </c>
       <c r="K17">
-        <v>11.46238543053439</v>
+        <v>13.06959622591668</v>
       </c>
       <c r="L17">
-        <v>10.66321461743764</v>
+        <v>6.962451655802493</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>30.59392340894325</v>
+        <v>20.00676391521243</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.43252331576842</v>
+        <v>16.48235522335839</v>
       </c>
       <c r="C18">
-        <v>8.736855511680428</v>
+        <v>7.275142922914403</v>
       </c>
       <c r="D18">
-        <v>7.804288650900074</v>
+        <v>5.718357123564745</v>
       </c>
       <c r="E18">
-        <v>13.0704848879044</v>
+        <v>8.123902239246558</v>
       </c>
       <c r="F18">
-        <v>39.57272796320036</v>
+        <v>27.10970879775647</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.37950244055493</v>
+        <v>5.987769104679693</v>
       </c>
       <c r="K18">
-        <v>11.42344617205877</v>
+        <v>12.9188037805342</v>
       </c>
       <c r="L18">
-        <v>10.66107621259331</v>
+        <v>6.926337256388992</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.61194431663897</v>
+        <v>20.00582913463437</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.41452584573234</v>
+        <v>16.41542725541862</v>
       </c>
       <c r="C19">
-        <v>8.735812861053589</v>
+        <v>7.271928392251099</v>
       </c>
       <c r="D19">
-        <v>7.802261371494835</v>
+        <v>5.702844681770117</v>
       </c>
       <c r="E19">
-        <v>13.07150805433426</v>
+        <v>8.118319841986906</v>
       </c>
       <c r="F19">
-        <v>39.57817357987943</v>
+        <v>27.0926157776544</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.38112824720555</v>
+        <v>5.991588678836703</v>
       </c>
       <c r="K19">
-        <v>11.41025709967085</v>
+        <v>12.86737536390948</v>
       </c>
       <c r="L19">
-        <v>10.66037275731486</v>
+        <v>6.91411248663434</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.61813726739933</v>
+        <v>20.00580760401903</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.49550896449618</v>
+        <v>16.72364254910957</v>
       </c>
       <c r="C20">
-        <v>8.740513233190699</v>
+        <v>7.286430406042927</v>
       </c>
       <c r="D20">
-        <v>7.811446571974935</v>
+        <v>5.772460095838643</v>
       </c>
       <c r="E20">
-        <v>13.06701123660771</v>
+        <v>8.143667462571051</v>
       </c>
       <c r="F20">
-        <v>39.55418287707854</v>
+        <v>27.17106281571592</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.37386538132522</v>
+        <v>5.974502057763043</v>
       </c>
       <c r="K20">
-        <v>11.4695895987158</v>
+        <v>13.09732761147918</v>
       </c>
       <c r="L20">
-        <v>10.66362014748202</v>
+        <v>6.969136803491757</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>30.59063155868898</v>
+        <v>20.0070780899628</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.76723703022528</v>
+        <v>17.77075450712091</v>
       </c>
       <c r="C21">
-        <v>8.75644805071498</v>
+        <v>7.335797570848608</v>
       </c>
       <c r="D21">
-        <v>7.843380189280738</v>
+        <v>6.002830350559403</v>
       </c>
       <c r="E21">
-        <v>13.05378190866978</v>
+        <v>8.232802698451295</v>
       </c>
       <c r="F21">
-        <v>39.4825992898456</v>
+        <v>27.46185144299832</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.35039663876375</v>
+        <v>5.918884298829489</v>
       </c>
       <c r="K21">
-        <v>11.66842766286208</v>
+        <v>13.84408757235247</v>
       </c>
       <c r="L21">
-        <v>10.67595446046982</v>
+        <v>7.154088554122885</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>30.5045785814305</v>
+        <v>20.03250950389834</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.94427789621936</v>
+        <v>18.42707243462783</v>
       </c>
       <c r="C22">
-        <v>8.766964060888302</v>
+        <v>7.36855094116239</v>
       </c>
       <c r="D22">
-        <v>7.865029996598991</v>
+        <v>6.150580788685564</v>
       </c>
       <c r="E22">
-        <v>13.04653310692512</v>
+        <v>8.294030407822884</v>
       </c>
       <c r="F22">
-        <v>39.44254600982487</v>
+        <v>27.67277745756533</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.3357520367963</v>
+        <v>5.883880309127691</v>
       </c>
       <c r="K22">
-        <v>11.79780280967126</v>
+        <v>14.31298136739333</v>
       </c>
       <c r="L22">
-        <v>10.68506744734967</v>
+        <v>7.27488055218856</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>30.45308629831329</v>
+        <v>20.06566690433344</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.84985568064157</v>
+        <v>18.07932857925334</v>
       </c>
       <c r="C23">
-        <v>8.76134244189519</v>
+        <v>7.351024382337408</v>
       </c>
       <c r="D23">
-        <v>7.853405090310131</v>
+        <v>6.071991384202799</v>
       </c>
       <c r="E23">
-        <v>13.05027429805415</v>
+        <v>8.261079231092271</v>
       </c>
       <c r="F23">
-        <v>39.46330696550741</v>
+        <v>27.55825456214303</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.34350481243198</v>
+        <v>5.902438748683029</v>
       </c>
       <c r="K23">
-        <v>11.72881806572087</v>
+        <v>14.06446900703102</v>
       </c>
       <c r="L23">
-        <v>10.68010803968924</v>
+        <v>7.210428077011547</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>30.4801338352039</v>
+        <v>20.04640768573982</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.49106241092093</v>
+        <v>16.70605058165809</v>
       </c>
       <c r="C24">
-        <v>8.740254565294267</v>
+        <v>7.285631632074314</v>
       </c>
       <c r="D24">
-        <v>7.810938079328677</v>
+        <v>5.76864992541529</v>
       </c>
       <c r="E24">
-        <v>13.067251101804</v>
+        <v>8.142260590972786</v>
       </c>
       <c r="F24">
-        <v>39.55546641009489</v>
+        <v>27.16665403303959</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.37426070584053</v>
+        <v>5.975433660459979</v>
       </c>
       <c r="K24">
-        <v>11.46633275672642</v>
+        <v>13.08479721260984</v>
       </c>
       <c r="L24">
-        <v>10.663436438253</v>
+        <v>6.966114459897876</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>30.59211812158613</v>
+        <v>20.00693063611607</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.10350454338539</v>
+        <v>15.21938370622183</v>
       </c>
       <c r="C25">
-        <v>8.717972166717331</v>
+        <v>7.217131656414765</v>
       </c>
       <c r="D25">
-        <v>7.768604543889522</v>
+        <v>5.430624268828819</v>
       </c>
       <c r="E25">
-        <v>13.09158393568018</v>
+        <v>8.026765491323077</v>
       </c>
       <c r="F25">
-        <v>39.68372597824214</v>
+        <v>26.82997222889798</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.41042788225338</v>
+        <v>6.059882557757002</v>
       </c>
       <c r="K25">
-        <v>11.18200601018616</v>
+        <v>11.94518467577651</v>
       </c>
       <c r="L25">
-        <v>10.65002727404116</v>
+        <v>6.703171113905346</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.73325596472722</v>
+        <v>20.03042422453739</v>
       </c>
     </row>
   </sheetData>
